--- a/converter/data/xlsx/11.10. A SMJENA.XLSX
+++ b/converter/data/xlsx/11.10. A SMJENA.XLSX
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RASPORED-2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
@@ -468,14 +463,14 @@
     </r>
   </si>
   <si>
-    <t>3D-SB -praktikum 24</t>
+    <t>3C-SB -praktikum 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4199,6 +4194,81 @@
     <xf numFmtId="0" fontId="9" fillId="31" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4223,88 +4293,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -4355,7 +4350,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4403,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,7 +4456,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4509,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4567,7 +4562,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4615,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4673,7 +4668,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +4721,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4774,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4827,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4880,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,7 +4933,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6194,7 +6189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6226,10 +6221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6261,7 +6255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6437,14 +6430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -6480,99 +6473,99 @@
     <col min="36" max="36" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="600" t="s">
+    <row r="1" spans="1:39" ht="27" thickBot="1">
+      <c r="A1" s="625" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="600"/>
-      <c r="C1" s="600"/>
-      <c r="D1" s="600"/>
-      <c r="E1" s="600"/>
-      <c r="F1" s="600"/>
-      <c r="G1" s="600"/>
-      <c r="H1" s="600"/>
-      <c r="I1" s="600"/>
-      <c r="J1" s="600"/>
-      <c r="K1" s="600"/>
-      <c r="L1" s="600"/>
-      <c r="M1" s="600"/>
-      <c r="N1" s="600"/>
-      <c r="O1" s="600"/>
-      <c r="P1" s="600"/>
-      <c r="Q1" s="600"/>
-      <c r="R1" s="600"/>
-      <c r="S1" s="600"/>
-      <c r="T1" s="600"/>
-      <c r="U1" s="600"/>
-      <c r="V1" s="600"/>
-      <c r="W1" s="600"/>
-      <c r="X1" s="600"/>
-      <c r="Y1" s="600"/>
-      <c r="Z1" s="600"/>
-      <c r="AA1" s="600"/>
-      <c r="AB1" s="600"/>
-      <c r="AC1" s="600"/>
-      <c r="AD1" s="600"/>
-      <c r="AE1" s="600"/>
-      <c r="AF1" s="600"/>
-      <c r="AG1" s="600"/>
-      <c r="AH1" s="600"/>
-      <c r="AI1" s="600"/>
-      <c r="AJ1" s="600"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
+      <c r="N1" s="625"/>
+      <c r="O1" s="625"/>
+      <c r="P1" s="625"/>
+      <c r="Q1" s="625"/>
+      <c r="R1" s="625"/>
+      <c r="S1" s="625"/>
+      <c r="T1" s="625"/>
+      <c r="U1" s="625"/>
+      <c r="V1" s="625"/>
+      <c r="W1" s="625"/>
+      <c r="X1" s="625"/>
+      <c r="Y1" s="625"/>
+      <c r="Z1" s="625"/>
+      <c r="AA1" s="625"/>
+      <c r="AB1" s="625"/>
+      <c r="AC1" s="625"/>
+      <c r="AD1" s="625"/>
+      <c r="AE1" s="625"/>
+      <c r="AF1" s="625"/>
+      <c r="AG1" s="625"/>
+      <c r="AH1" s="625"/>
+      <c r="AI1" s="625"/>
+      <c r="AJ1" s="625"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18">
       <c r="A2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="601" t="s">
+      <c r="B2" s="626" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="602"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="602"/>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="604" t="s">
+      <c r="C2" s="627"/>
+      <c r="D2" s="627"/>
+      <c r="E2" s="627"/>
+      <c r="F2" s="627"/>
+      <c r="G2" s="627"/>
+      <c r="H2" s="628"/>
+      <c r="I2" s="629" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="602"/>
-      <c r="K2" s="602"/>
-      <c r="L2" s="602"/>
-      <c r="M2" s="602"/>
-      <c r="N2" s="602"/>
-      <c r="O2" s="603"/>
-      <c r="P2" s="601" t="s">
+      <c r="J2" s="627"/>
+      <c r="K2" s="627"/>
+      <c r="L2" s="627"/>
+      <c r="M2" s="627"/>
+      <c r="N2" s="627"/>
+      <c r="O2" s="628"/>
+      <c r="P2" s="626" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="602"/>
-      <c r="R2" s="602"/>
-      <c r="S2" s="602"/>
-      <c r="T2" s="602"/>
-      <c r="U2" s="602"/>
-      <c r="V2" s="603"/>
-      <c r="W2" s="604" t="s">
+      <c r="Q2" s="627"/>
+      <c r="R2" s="627"/>
+      <c r="S2" s="627"/>
+      <c r="T2" s="627"/>
+      <c r="U2" s="627"/>
+      <c r="V2" s="628"/>
+      <c r="W2" s="629" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="602"/>
-      <c r="Y2" s="602"/>
-      <c r="Z2" s="602"/>
-      <c r="AA2" s="602"/>
-      <c r="AB2" s="602"/>
-      <c r="AC2" s="603"/>
-      <c r="AD2" s="605" t="s">
+      <c r="X2" s="627"/>
+      <c r="Y2" s="627"/>
+      <c r="Z2" s="627"/>
+      <c r="AA2" s="627"/>
+      <c r="AB2" s="627"/>
+      <c r="AC2" s="628"/>
+      <c r="AD2" s="630" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="606"/>
-      <c r="AF2" s="606"/>
-      <c r="AG2" s="606"/>
-      <c r="AH2" s="606"/>
-      <c r="AI2" s="606"/>
-      <c r="AJ2" s="607"/>
+      <c r="AE2" s="631"/>
+      <c r="AF2" s="631"/>
+      <c r="AG2" s="631"/>
+      <c r="AH2" s="631"/>
+      <c r="AI2" s="631"/>
+      <c r="AJ2" s="632"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -6683,7 +6676,7 @@
       </c>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="18.75" thickTop="1">
       <c r="A4" s="85" t="s">
         <v>86</v>
       </c>
@@ -6762,7 +6755,7 @@
       </c>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="18" customHeight="1">
       <c r="A5" s="308" t="s">
         <v>66</v>
       </c>
@@ -6811,7 +6804,7 @@
       </c>
       <c r="AK5" s="61"/>
     </row>
-    <row r="6" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="18" customHeight="1">
       <c r="A6" s="308" t="s">
         <v>87</v>
       </c>
@@ -6864,7 +6857,7 @@
       <c r="AJ6" s="443"/>
       <c r="AK6" s="61"/>
     </row>
-    <row r="7" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
@@ -6943,7 +6936,7 @@
       </c>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="17.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -7020,7 +7013,7 @@
       <c r="AJ8" s="142"/>
       <c r="AK8" s="61"/>
     </row>
-    <row r="9" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="17.25" customHeight="1">
       <c r="A9" s="86" t="s">
         <v>88</v>
       </c>
@@ -7103,7 +7096,7 @@
       </c>
       <c r="AK9" s="61"/>
     </row>
-    <row r="10" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="20.25" customHeight="1">
       <c r="A10" s="271" t="s">
         <v>70</v>
       </c>
@@ -7162,7 +7155,7 @@
       </c>
       <c r="AK10" s="460"/>
     </row>
-    <row r="11" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="18.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>108</v>
       </c>
@@ -7247,7 +7240,7 @@
       </c>
       <c r="AK11" s="61"/>
     </row>
-    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="272" t="s">
         <v>7</v>
       </c>
@@ -7330,7 +7323,7 @@
       <c r="AJ12" s="228"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="18.75" customHeight="1">
       <c r="A13" s="270" t="s">
         <v>8</v>
       </c>
@@ -7391,7 +7384,7 @@
       <c r="AJ13" s="115"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="18.75" customHeight="1">
       <c r="A14" s="270" t="s">
         <v>92</v>
       </c>
@@ -7442,7 +7435,7 @@
       <c r="AJ14" s="115"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="18.75" customHeight="1">
       <c r="A15" s="270" t="s">
         <v>74</v>
       </c>
@@ -7487,7 +7480,7 @@
       <c r="AJ15" s="115"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="21" customHeight="1">
       <c r="A16" s="270" t="s">
         <v>9</v>
       </c>
@@ -7550,7 +7543,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18.75" customHeight="1">
       <c r="A17" s="271" t="s">
         <v>10</v>
       </c>
@@ -7615,7 +7608,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="17.25" customHeight="1">
       <c r="A18" s="271" t="s">
         <v>11</v>
       </c>
@@ -7664,7 +7657,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="17.25" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>54</v>
       </c>
@@ -7713,7 +7706,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="16.5" customHeight="1">
       <c r="A20" s="271" t="s">
         <v>78</v>
       </c>
@@ -7766,7 +7759,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="18.75" customHeight="1" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
@@ -7855,7 +7848,7 @@
       <c r="AL21" s="42"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="19.5" customHeight="1">
       <c r="A22" s="273" t="s">
         <v>72</v>
       </c>
@@ -7902,7 +7895,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="42"/>
     </row>
-    <row r="23" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="19.5" customHeight="1">
       <c r="A23" s="273" t="s">
         <v>89</v>
       </c>
@@ -7977,7 +7970,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="42"/>
     </row>
-    <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15.75" customHeight="1">
       <c r="A24" s="273" t="s">
         <v>81</v>
       </c>
@@ -8024,7 +8017,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="17.25" customHeight="1">
       <c r="A25" s="273" t="s">
         <v>13</v>
       </c>
@@ -8103,7 +8096,7 @@
       <c r="AL25" s="42"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="17.25" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>107</v>
       </c>
@@ -8186,7 +8179,7 @@
       <c r="AL26" s="42"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="17.25" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>69</v>
       </c>
@@ -8249,7 +8242,7 @@
       <c r="AL27" s="42"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="18.75" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -8316,7 +8309,7 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="16.5" customHeight="1">
       <c r="A29" s="270" t="s">
         <v>14</v>
       </c>
@@ -8373,7 +8366,7 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="16.5" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>73</v>
       </c>
@@ -8391,7 +8384,7 @@
       <c r="M30" s="309"/>
       <c r="N30" s="326"/>
       <c r="O30" s="165"/>
-      <c r="P30" s="633" t="s">
+      <c r="P30" s="601" t="s">
         <v>103</v>
       </c>
       <c r="Q30" s="119" t="s">
@@ -8409,7 +8402,7 @@
       <c r="AA30" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="AB30" s="632" t="s">
+      <c r="AB30" s="600" t="s">
         <v>95</v>
       </c>
       <c r="AC30" s="500" t="s">
@@ -8426,7 +8419,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="16.5" customHeight="1">
       <c r="A31" s="271" t="s">
         <v>109</v>
       </c>
@@ -8487,7 +8480,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>82</v>
       </c>
@@ -8562,7 +8555,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="18">
       <c r="A33" s="274" t="s">
         <v>16</v>
       </c>
@@ -8612,7 +8605,7 @@
       <c r="AK33" s="206"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="18" customHeight="1">
       <c r="A34" s="271" t="s">
         <v>17</v>
       </c>
@@ -8664,7 +8657,7 @@
       <c r="AK34" s="207"/>
       <c r="AL34" s="208"/>
     </row>
-    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="18">
       <c r="A35" s="273" t="s">
         <v>18</v>
       </c>
@@ -8734,7 +8727,7 @@
       <c r="AK35" s="214"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="18">
       <c r="A36" s="273" t="s">
         <v>19</v>
       </c>
@@ -8796,7 +8789,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15.75" customHeight="1">
       <c r="A37" s="273" t="s">
         <v>20</v>
       </c>
@@ -8846,7 +8839,7 @@
       <c r="AK37" s="61"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A38" s="272" t="s">
         <v>21</v>
       </c>
@@ -8896,7 +8889,7 @@
       <c r="AK38" s="61"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="16.5" customHeight="1">
       <c r="A39" s="274" t="s">
         <v>57</v>
       </c>
@@ -8944,7 +8937,7 @@
       <c r="AK39" s="61"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="16.5" customHeight="1">
       <c r="A40" s="522" t="s">
         <v>106</v>
       </c>
@@ -8990,7 +8983,7 @@
       <c r="AK40" s="42"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="18" customHeight="1">
       <c r="A41" s="15" t="s">
         <v>90</v>
       </c>
@@ -9072,7 +9065,7 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="18" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>83</v>
       </c>
@@ -9154,14 +9147,14 @@
       </c>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="17.25" customHeight="1">
       <c r="A43" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="625" t="s">
+      <c r="B43" s="602" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="626"/>
+      <c r="C43" s="603"/>
       <c r="D43" s="119"/>
       <c r="E43" s="119"/>
       <c r="F43" s="119"/>
@@ -9204,7 +9197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="17.25" customHeight="1">
       <c r="A44" s="273" t="s">
         <v>62</v>
       </c>
@@ -9272,7 +9265,7 @@
       <c r="AK44" s="46"/>
       <c r="AL44" s="46"/>
     </row>
-    <row r="45" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A45" s="273" t="s">
         <v>61</v>
       </c>
@@ -9328,7 +9321,7 @@
       <c r="AK45" s="46"/>
       <c r="AL45" s="46"/>
     </row>
-    <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="18">
       <c r="A46" s="274" t="s">
         <v>105</v>
       </c>
@@ -9406,7 +9399,7 @@
       <c r="AK46" s="46"/>
       <c r="AL46" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="18.75" customHeight="1">
       <c r="A47" s="271" t="s">
         <v>24</v>
       </c>
@@ -9488,7 +9481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14" t="s">
         <v>26</v>
       </c>
@@ -9580,7 +9573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="16.5" customHeight="1">
       <c r="A49" s="16" t="s">
         <v>28</v>
       </c>
@@ -9654,7 +9647,7 @@
       <c r="AK49" s="61"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="17.25" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>29</v>
       </c>
@@ -9736,7 +9729,7 @@
       </c>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="49" t="s">
         <v>56</v>
       </c>
@@ -9814,7 +9807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15.75" customHeight="1">
       <c r="A52" s="16" t="s">
         <v>32</v>
       </c>
@@ -9906,7 +9899,7 @@
       </c>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="17.25" customHeight="1" thickBot="1">
       <c r="A53" s="271" t="s">
         <v>71</v>
       </c>
@@ -9973,7 +9966,7 @@
       <c r="AJ53" s="365"/>
       <c r="AL53" s="1"/>
     </row>
-    <row r="54" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="17.25" customHeight="1">
       <c r="A54" s="275" t="s">
         <v>65</v>
       </c>
@@ -10077,7 +10070,7 @@
       </c>
       <c r="AL54" s="90"/>
     </row>
-    <row r="55" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="16.5" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>34</v>
       </c>
@@ -10153,7 +10146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="16.5" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>35</v>
       </c>
@@ -10249,7 +10242,7 @@
       </c>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15.75" customHeight="1">
       <c r="A57" s="276" t="s">
         <v>60</v>
       </c>
@@ -10291,7 +10284,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="17.25" customHeight="1">
       <c r="A58" s="277" t="s">
         <v>75</v>
       </c>
@@ -10351,7 +10344,7 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="19.5" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>84</v>
       </c>
@@ -10437,7 +10430,7 @@
       </c>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="A60" s="276" t="s">
         <v>53</v>
       </c>
@@ -10521,7 +10514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="18" customHeight="1">
       <c r="A61" s="37" t="s">
         <v>36</v>
       </c>
@@ -10597,7 +10590,7 @@
       </c>
       <c r="AL61" s="42"/>
     </row>
-    <row r="62" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="18.75" customHeight="1">
       <c r="A62" s="37" t="s">
         <v>37</v>
       </c>
@@ -10673,7 +10666,7 @@
       <c r="AK62" s="84"/>
       <c r="AL62" s="46"/>
     </row>
-    <row r="63" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="367" t="s">
         <v>63</v>
       </c>
@@ -10779,7 +10772,7 @@
       <c r="AK63" s="212"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="10.5" customHeight="1" thickBot="1">
       <c r="A64" s="1"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -10819,59 +10812,59 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
     </row>
-    <row r="65" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="627" t="s">
+      <c r="B65" s="604" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="628"/>
-      <c r="D65" s="628"/>
-      <c r="E65" s="628"/>
-      <c r="F65" s="628"/>
-      <c r="G65" s="628"/>
-      <c r="H65" s="630"/>
-      <c r="I65" s="627" t="s">
+      <c r="C65" s="605"/>
+      <c r="D65" s="605"/>
+      <c r="E65" s="605"/>
+      <c r="F65" s="605"/>
+      <c r="G65" s="605"/>
+      <c r="H65" s="607"/>
+      <c r="I65" s="604" t="s">
         <v>102</v>
       </c>
-      <c r="J65" s="628"/>
-      <c r="K65" s="628"/>
-      <c r="L65" s="628"/>
-      <c r="M65" s="628"/>
-      <c r="N65" s="628"/>
-      <c r="O65" s="630"/>
-      <c r="P65" s="627" t="s">
+      <c r="J65" s="605"/>
+      <c r="K65" s="605"/>
+      <c r="L65" s="605"/>
+      <c r="M65" s="605"/>
+      <c r="N65" s="605"/>
+      <c r="O65" s="607"/>
+      <c r="P65" s="604" t="s">
         <v>100</v>
       </c>
-      <c r="Q65" s="628"/>
-      <c r="R65" s="628"/>
-      <c r="S65" s="628"/>
-      <c r="T65" s="628"/>
-      <c r="U65" s="628"/>
-      <c r="V65" s="630"/>
-      <c r="W65" s="627" t="s">
+      <c r="Q65" s="605"/>
+      <c r="R65" s="605"/>
+      <c r="S65" s="605"/>
+      <c r="T65" s="605"/>
+      <c r="U65" s="605"/>
+      <c r="V65" s="607"/>
+      <c r="W65" s="604" t="s">
         <v>88</v>
       </c>
-      <c r="X65" s="628"/>
-      <c r="Y65" s="628"/>
-      <c r="Z65" s="628"/>
-      <c r="AA65" s="628"/>
-      <c r="AB65" s="628"/>
-      <c r="AC65" s="630"/>
-      <c r="AD65" s="627" t="s">
+      <c r="X65" s="605"/>
+      <c r="Y65" s="605"/>
+      <c r="Z65" s="605"/>
+      <c r="AA65" s="605"/>
+      <c r="AB65" s="605"/>
+      <c r="AC65" s="607"/>
+      <c r="AD65" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="AE65" s="628"/>
-      <c r="AF65" s="628"/>
-      <c r="AG65" s="628"/>
-      <c r="AH65" s="628"/>
-      <c r="AI65" s="628"/>
-      <c r="AJ65" s="629"/>
+      <c r="AE65" s="605"/>
+      <c r="AF65" s="605"/>
+      <c r="AG65" s="605"/>
+      <c r="AH65" s="605"/>
+      <c r="AI65" s="605"/>
+      <c r="AJ65" s="606"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -10911,255 +10904,255 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="P79" s="94"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="P80" s="94"/>
     </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:18">
       <c r="P81" s="94"/>
     </row>
-    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:18">
       <c r="P85" s="94"/>
     </row>
-    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:18">
       <c r="P86" s="94"/>
     </row>
-    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:18">
       <c r="P87" s="94"/>
       <c r="Q87" s="94"/>
     </row>
-    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:18">
       <c r="P88" s="94"/>
     </row>
-    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:18">
       <c r="Q89" s="94"/>
     </row>
-    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:18">
       <c r="R91" s="94"/>
     </row>
-    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:18">
       <c r="Q92" s="94"/>
     </row>
-    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:18">
       <c r="P93" s="94"/>
       <c r="Q93" s="94"/>
     </row>
-    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:18">
       <c r="Q94" s="94"/>
     </row>
-    <row r="95" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:18">
       <c r="Q95" s="94"/>
     </row>
-    <row r="101" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="17:19">
       <c r="S101" s="94"/>
     </row>
-    <row r="102" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="17:19">
       <c r="R102" s="94"/>
     </row>
-    <row r="103" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="17:19">
       <c r="R103" s="94"/>
     </row>
-    <row r="104" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="17:19">
       <c r="R104" s="94"/>
     </row>
-    <row r="105" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="17:19">
       <c r="R105" s="94"/>
     </row>
-    <row r="106" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="17:19">
       <c r="R106" s="94"/>
     </row>
-    <row r="107" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="17:19">
       <c r="Q107" s="94"/>
       <c r="R107" s="94"/>
     </row>
-    <row r="108" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="17:19">
       <c r="Q108" s="94"/>
       <c r="R108" s="94"/>
     </row>
-    <row r="109" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="17:19">
       <c r="R109" s="94"/>
     </row>
-    <row r="110" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="17:19">
       <c r="R110" s="94"/>
     </row>
-    <row r="111" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="17:19">
       <c r="R111" s="94"/>
     </row>
-    <row r="112" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="17:19">
       <c r="R112" s="94"/>
     </row>
-    <row r="113" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:19">
       <c r="S113" s="94"/>
     </row>
-    <row r="114" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:19">
       <c r="R114" s="94"/>
       <c r="S114" s="94"/>
     </row>
-    <row r="115" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:19">
       <c r="R115" s="94"/>
     </row>
-    <row r="117" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:19">
       <c r="R117" s="94"/>
     </row>
-    <row r="119" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:19">
       <c r="P119" s="94"/>
       <c r="Q119" s="94"/>
     </row>
-    <row r="120" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:19">
       <c r="Q120" s="94"/>
     </row>
-    <row r="121" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:19">
       <c r="Q121" s="94"/>
     </row>
-    <row r="122" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:19">
       <c r="Q122" s="94"/>
       <c r="R122" s="94"/>
     </row>
-    <row r="123" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:19">
       <c r="O123" s="94"/>
       <c r="Q123" s="94"/>
     </row>
-    <row r="124" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:19">
       <c r="O124" s="94"/>
       <c r="Q124" s="94"/>
       <c r="R124" s="94"/>
     </row>
-    <row r="125" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:19">
       <c r="P125" s="94"/>
       <c r="Q125" s="94"/>
       <c r="R125" s="94"/>
     </row>
-    <row r="126" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:19">
       <c r="O126" s="94"/>
       <c r="Q126" s="94"/>
       <c r="R126" s="94"/>
     </row>
-    <row r="127" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:19">
       <c r="O127" s="94"/>
       <c r="Q127" s="94"/>
       <c r="R127" s="94"/>
     </row>
-    <row r="128" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:19">
       <c r="O128" s="94"/>
       <c r="Q128" s="94"/>
       <c r="R128" s="94"/>
     </row>
-    <row r="129" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:24">
       <c r="P129" s="94"/>
       <c r="Q129" s="94"/>
       <c r="R129" s="94"/>
       <c r="V129" s="94"/>
     </row>
-    <row r="130" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:24">
       <c r="P130" s="94"/>
       <c r="Q130" s="94"/>
     </row>
-    <row r="131" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:24">
       <c r="P131" s="94"/>
       <c r="Q131" s="94"/>
     </row>
-    <row r="132" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:24">
       <c r="P132" s="94"/>
       <c r="Q132" s="94"/>
       <c r="S132" s="94"/>
     </row>
-    <row r="133" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:24">
       <c r="P133" s="94"/>
       <c r="Q133" s="94"/>
       <c r="R133" s="94"/>
       <c r="S133" s="94"/>
     </row>
-    <row r="134" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:24">
       <c r="O134" s="94"/>
       <c r="Q134" s="94"/>
     </row>
-    <row r="135" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:24">
       <c r="P135" s="94"/>
       <c r="Q135" s="94"/>
     </row>
-    <row r="136" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:24">
       <c r="P136" s="94"/>
       <c r="Q136" s="94"/>
       <c r="R136" s="94"/>
       <c r="T136" s="94"/>
     </row>
-    <row r="137" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:24">
       <c r="Q137" s="94"/>
       <c r="R137" s="94"/>
     </row>
-    <row r="138" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:24">
       <c r="Q138" s="94"/>
     </row>
-    <row r="139" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:24">
       <c r="Q139" s="94"/>
       <c r="T139" s="94"/>
     </row>
-    <row r="140" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:24">
       <c r="P140" s="94"/>
       <c r="Q140" s="94"/>
       <c r="R140" s="94"/>
     </row>
-    <row r="141" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:24">
       <c r="R141" s="94"/>
     </row>
-    <row r="142" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:24">
       <c r="R142" s="94"/>
     </row>
-    <row r="143" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:24">
       <c r="R143" s="94"/>
       <c r="U143" s="94"/>
     </row>
-    <row r="144" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:24">
       <c r="R144" s="94"/>
       <c r="V144" s="94"/>
       <c r="W144" s="94"/>
       <c r="X144" s="94"/>
     </row>
-    <row r="145" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="18:24">
       <c r="R145" s="94"/>
       <c r="V145" s="94"/>
       <c r="W145" s="94"/>
       <c r="X145" s="94"/>
     </row>
-    <row r="146" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="18:24">
       <c r="V146" s="94"/>
     </row>
-    <row r="147" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="18:24">
       <c r="R147" s="94"/>
       <c r="V147" s="94"/>
     </row>
-    <row r="148" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="18:24">
       <c r="R148" s="94"/>
       <c r="V148" s="94"/>
     </row>
-    <row r="149" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="18:24">
       <c r="R149" s="94"/>
     </row>
-    <row r="150" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="18:24">
       <c r="R150" s="94"/>
     </row>
-    <row r="151" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="18:24">
       <c r="R151" s="94"/>
     </row>
-    <row r="152" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="18:24">
       <c r="R152" s="94"/>
     </row>
-    <row r="153" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="18:24">
       <c r="R153" s="94"/>
     </row>
-    <row r="154" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="18:24">
       <c r="R154" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AD65:AJ65"/>
-    <mergeCell ref="W65:AC65"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:O65"/>
-    <mergeCell ref="P65:V65"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="AD43:AE43"/>
@@ -11170,12 +11163,12 @@
     <mergeCell ref="S43:T43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="AD31:AJ31"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AD65:AJ65"/>
+    <mergeCell ref="W65:AC65"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:O65"/>
+    <mergeCell ref="P65:V65"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11185,28 +11178,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="631" t="s">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B1" s="633" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="631"/>
-      <c r="D1" s="631"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="633"/>
+      <c r="D1" s="633"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="583"/>
       <c r="C2" s="73" t="s">
         <v>40</v>
@@ -11215,12 +11208,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="573"/>
       <c r="C3" s="73"/>
       <c r="D3" s="74"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="110"/>
       <c r="C4" s="73" t="s">
         <v>40</v>
@@ -11229,12 +11222,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="573"/>
       <c r="C5" s="73"/>
       <c r="D5" s="74"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="105"/>
       <c r="C6" s="73" t="s">
         <v>40</v>
@@ -11243,12 +11236,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="573"/>
       <c r="C7" s="73"/>
       <c r="D7" s="74"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="104"/>
       <c r="C8" s="73" t="s">
         <v>40</v>
@@ -11257,12 +11250,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="573"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="75"/>
       <c r="C10" s="73" t="s">
         <v>40</v>
@@ -11271,12 +11264,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="95"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="296"/>
       <c r="C12" s="73" t="s">
         <v>40</v>
@@ -11285,12 +11278,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="95"/>
       <c r="C13" s="93"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
       <c r="B14" s="547"/>
       <c r="C14" s="73" t="s">
         <v>40</v>
@@ -11300,12 +11293,12 @@
       </c>
       <c r="F14" s="94"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="574"/>
       <c r="C15" s="73"/>
       <c r="D15" s="92"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="76"/>
       <c r="C16" s="73" t="s">
         <v>40</v>
@@ -11314,12 +11307,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1">
       <c r="B17" s="573"/>
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1">
       <c r="B18" s="77"/>
       <c r="C18" s="73" t="s">
         <v>40</v>
@@ -11328,12 +11321,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1">
       <c r="B19" s="573"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="73" t="s">
         <v>40</v>
@@ -11342,12 +11335,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1">
       <c r="B21" s="573"/>
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1">
       <c r="B22" s="113"/>
       <c r="C22" s="73" t="s">
         <v>40</v>
@@ -11356,12 +11349,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1">
       <c r="B23" s="573"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1">
       <c r="B24" s="79"/>
       <c r="C24" s="73" t="s">
         <v>40</v>
@@ -11370,12 +11363,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1">
       <c r="B25" s="573"/>
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="18.75" thickBot="1">
       <c r="B26" s="80"/>
       <c r="C26" s="73" t="s">
         <v>40</v>
@@ -11384,12 +11377,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1">
       <c r="B27" s="573"/>
       <c r="C27" s="573"/>
       <c r="D27" s="74"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="21" thickBot="1">
       <c r="B28" s="81"/>
       <c r="C28" s="73" t="s">
         <v>40</v>
@@ -11398,41 +11391,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1">
       <c r="B29" s="573"/>
       <c r="C29" s="573"/>
       <c r="D29" s="573"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1">
       <c r="B30" s="109"/>
       <c r="C30" s="573"/>
       <c r="D30" s="74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1">
       <c r="B31" s="573"/>
       <c r="C31" s="573"/>
       <c r="D31" s="74"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1">
       <c r="B32" s="82"/>
       <c r="C32" s="573"/>
       <c r="D32" s="74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" s="573"/>
       <c r="C33" s="573"/>
       <c r="D33" s="573"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="573"/>
       <c r="C34" s="573"/>
       <c r="D34" s="573"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1">
       <c r="B35" s="83"/>
       <c r="C35" s="573"/>
       <c r="D35" s="74" t="s">
